--- a/export_dtr.xlsx
+++ b/export_dtr.xlsx
@@ -15,19 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
-  <si>
-    <t>DAILY ATTENDANCE</t>
-  </si>
-  <si>
-    <t>Eternal Investment</t>
-  </si>
-  <si>
-    <t>STAFF</t>
-  </si>
-  <si>
-    <t>FULL NAME</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
     <t>asd</t>
   </si>
@@ -37,45 +25,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="1">
     <font>
       <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="36"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -98,47 +50,15 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,86 +359,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" customWidth="true" style="2"/>
-    <col min="2" max="2" width="12" customWidth="true" style="2"/>
-    <col min="3" max="3" width="9.140625" customWidth="true" style="2"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" customHeight="1" ht="15">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" customHeight="1" ht="15">
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" customHeight="1" ht="15.75">
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" customHeight="1" ht="15.75" s="6" customFormat="1">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="B2:I4"/>
-    <mergeCell ref="D5:G6"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
